--- a/target/classes/controle_cheques.xlsx
+++ b/target/classes/controle_cheques.xlsx
@@ -436,7 +436,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>43470</v>
+        <v>43835</v>
       </c>
       <c r="B2" s="3">
         <v>232343</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>43471</v>
+        <v>43836</v>
       </c>
       <c r="B3" s="3">
         <v>93457</v>

--- a/target/classes/controle_cheques.xlsx
+++ b/target/classes/controle_cheques.xlsx
@@ -454,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G7" si="0">SUM(D2*F2)</f>
+        <f>(D2*F2)</f>
         <v>1000</v>
       </c>
       <c r="H2" s="3"/>
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" si="0"/>
+        <f>(D3*F3)</f>
         <v>501</v>
       </c>
       <c r="H3" s="3"/>
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G3:G7" si="0">(D4*F4)</f>
         <v>372.63</v>
       </c>
       <c r="H4" s="3"/>
